--- a/teaching/traditional_assets/database/data/qatar/qatar_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/qatar/qatar_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.05695</v>
+        <v>0.04075</v>
       </c>
       <c r="E2">
-        <v>0.02755</v>
+        <v>0.013275</v>
       </c>
       <c r="F2">
-        <v>0.073</v>
+        <v>0.094</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,34 +606,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0004225296409736117</v>
+        <v>0.0002062020761807941</v>
       </c>
       <c r="J2">
-        <v>0.0004164218472102876</v>
+        <v>0.0002028196411420839</v>
       </c>
       <c r="K2">
-        <v>6684.8</v>
+        <v>6188.8</v>
       </c>
       <c r="L2">
-        <v>0.5753681691813777</v>
+        <v>0.5459180523089137</v>
       </c>
       <c r="M2">
-        <v>3049.1</v>
+        <v>3485</v>
       </c>
       <c r="N2">
-        <v>0.03575994126601756</v>
+        <v>0.04331102535900926</v>
       </c>
       <c r="O2">
-        <v>0.4561243417903303</v>
+        <v>0.563114012409514</v>
       </c>
       <c r="P2">
-        <v>3049.1</v>
+        <v>3485</v>
       </c>
       <c r="Q2">
-        <v>0.03575994126601756</v>
+        <v>0.04331102535900926</v>
       </c>
       <c r="R2">
-        <v>0.4561243417903303</v>
+        <v>0.563114012409514</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,55 +642,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>36135.5</v>
+        <v>45056.1</v>
       </c>
       <c r="V2">
-        <v>0.4237982872382596</v>
+        <v>0.5599500400797868</v>
       </c>
       <c r="W2">
-        <v>0.1312400286589259</v>
+        <v>0.1213331341460992</v>
       </c>
       <c r="X2">
-        <v>0.06283567746403597</v>
+        <v>0.06527297149923544</v>
       </c>
       <c r="Y2">
-        <v>0.0684043511948899</v>
+        <v>0.05606016264686371</v>
       </c>
       <c r="Z2">
-        <v>0.1439279567977605</v>
+        <v>0.1288075256447035</v>
       </c>
       <c r="AA2">
-        <v>1.94559514807495e-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04787458340335127</v>
+        <v>0.04120876098108054</v>
       </c>
       <c r="AC2">
-        <v>-0.04780451803600154</v>
+        <v>-0.04119518474884083</v>
       </c>
       <c r="AD2">
-        <v>74633.10000000001</v>
+        <v>87587.5</v>
       </c>
       <c r="AE2">
-        <v>38.62461936138144</v>
+        <v>22.36195081688214</v>
       </c>
       <c r="AF2">
-        <v>74671.72461936138</v>
+        <v>87609.86195081688</v>
       </c>
       <c r="AG2">
-        <v>38536.22461936138</v>
+        <v>42553.76195081688</v>
       </c>
       <c r="AH2">
-        <v>0.4668805822590675</v>
+        <v>0.5212565493864787</v>
       </c>
       <c r="AI2">
-        <v>0.5980252875241721</v>
+        <v>0.6295681542395184</v>
       </c>
       <c r="AJ2">
-        <v>0.3112729758486898</v>
+        <v>0.3459141860403622</v>
       </c>
       <c r="AK2">
-        <v>0.4343170547249622</v>
+        <v>0.4522062000082186</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>5907.321513376603</v>
+        <v>12861.60058737151</v>
       </c>
       <c r="AP2">
-        <v>3050.199827399191</v>
+        <v>6248.716879708792</v>
       </c>
     </row>
     <row r="3">
@@ -722,13 +722,13 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0861</v>
+        <v>0.0727</v>
       </c>
       <c r="E3">
-        <v>0.0275</v>
+        <v>0.0174</v>
       </c>
       <c r="F3">
-        <v>0.073</v>
+        <v>0.076</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -743,28 +743,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>253.7</v>
+        <v>256.7</v>
       </c>
       <c r="L3">
-        <v>0.4231154102735156</v>
+        <v>0.4274771024146544</v>
       </c>
       <c r="M3">
-        <v>181.7</v>
+        <v>195</v>
       </c>
       <c r="N3">
-        <v>0.04514846564790657</v>
+        <v>0.05181071817626273</v>
       </c>
       <c r="O3">
-        <v>0.7162002364998029</v>
+        <v>0.7596416049863655</v>
       </c>
       <c r="P3">
-        <v>181.7</v>
+        <v>195</v>
       </c>
       <c r="Q3">
-        <v>0.04514846564790657</v>
+        <v>0.05181071817626273</v>
       </c>
       <c r="R3">
-        <v>0.7162002364998029</v>
+        <v>0.7596416049863655</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,55 +773,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1242.4</v>
+        <v>1550</v>
       </c>
       <c r="V3">
-        <v>0.3087091564169462</v>
+        <v>0.4118287855036268</v>
       </c>
       <c r="W3">
-        <v>0.137775605517541</v>
+        <v>0.1345952181208054</v>
       </c>
       <c r="X3">
-        <v>0.04508726825612736</v>
+        <v>0.03897990649721352</v>
       </c>
       <c r="Y3">
-        <v>0.09268833726141362</v>
+        <v>0.09561531162359184</v>
       </c>
       <c r="Z3">
-        <v>8.293222683264156</v>
+        <v>0.5160264673025695</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04341534310379212</v>
+        <v>0.03633369163183226</v>
       </c>
       <c r="AC3">
-        <v>-0.04341534310379212</v>
+        <v>-0.03633369163183226</v>
       </c>
       <c r="AD3">
-        <v>498.9</v>
+        <v>699.1</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>498.9</v>
+        <v>699.1</v>
       </c>
       <c r="AG3">
-        <v>-743.5000000000001</v>
+        <v>-850.9</v>
       </c>
       <c r="AH3">
-        <v>0.1102931423265685</v>
+        <v>0.1566505332974814</v>
       </c>
       <c r="AI3">
-        <v>0.2073479905240846</v>
+        <v>0.2364380411255411</v>
       </c>
       <c r="AJ3">
-        <v>-0.2266077415422128</v>
+        <v>-0.2921244163691294</v>
       </c>
       <c r="AK3">
-        <v>-0.6389103720890266</v>
+        <v>-0.6048478817173729</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -847,13 +847,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.116</v>
+        <v>0.0873</v>
       </c>
       <c r="E4">
-        <v>0.0276</v>
-      </c>
-      <c r="F4">
-        <v>0.05599999999999999</v>
+        <v>0.00915</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -862,34 +859,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.001335404605886733</v>
+        <v>0.001523131797617088</v>
       </c>
       <c r="J4">
-        <v>0.001334306396504069</v>
+        <v>0.001523131797617088</v>
       </c>
       <c r="K4">
-        <v>590.9</v>
+        <v>600.7</v>
       </c>
       <c r="L4">
-        <v>0.4197925547030407</v>
+        <v>0.4474821215733015</v>
       </c>
       <c r="M4">
-        <v>391.6</v>
+        <v>437.2</v>
       </c>
       <c r="N4">
-        <v>0.04800431499460626</v>
+        <v>0.04684703991427806</v>
       </c>
       <c r="O4">
-        <v>0.6627178879675073</v>
+        <v>0.7278175461961045</v>
       </c>
       <c r="P4">
-        <v>391.6</v>
+        <v>437.2</v>
       </c>
       <c r="Q4">
-        <v>0.04800431499460626</v>
+        <v>0.04684703991427806</v>
       </c>
       <c r="R4">
-        <v>0.6627178879675073</v>
+        <v>0.7278175461961045</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -898,55 +895,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1388.2</v>
+        <v>3131.3</v>
       </c>
       <c r="V4">
-        <v>0.1701725997842503</v>
+        <v>0.3355263862844897</v>
       </c>
       <c r="W4">
-        <v>0.1676740160608382</v>
+        <v>0.1628751931889049</v>
       </c>
       <c r="X4">
-        <v>0.05808500705549413</v>
+        <v>0.0572177856036345</v>
       </c>
       <c r="Y4">
-        <v>0.1095890090053441</v>
+        <v>0.1056574075852704</v>
       </c>
       <c r="Z4">
-        <v>0.1664488613394005</v>
+        <v>0.1604268474764674</v>
       </c>
       <c r="AA4">
-        <v>0.0002220937803759809</v>
+        <v>0.0002443512325828743</v>
       </c>
       <c r="AB4">
-        <v>0.04607242957240518</v>
+        <v>0.03980632522108923</v>
       </c>
       <c r="AC4">
-        <v>-0.04585033579202921</v>
+        <v>-0.03956197398850635</v>
       </c>
       <c r="AD4">
-        <v>6058.4</v>
+        <v>9161.200000000001</v>
       </c>
       <c r="AE4">
-        <v>11.55142238376918</v>
+        <v>9.376739374394102</v>
       </c>
       <c r="AF4">
-        <v>6069.951422383769</v>
+        <v>9170.576739374395</v>
       </c>
       <c r="AG4">
-        <v>4681.751422383769</v>
+        <v>6039.276739374395</v>
       </c>
       <c r="AH4">
-        <v>0.4266335957734864</v>
+        <v>0.4956244233619527</v>
       </c>
       <c r="AI4">
-        <v>0.6186472756804334</v>
+        <v>0.7030830223350774</v>
       </c>
       <c r="AJ4">
-        <v>0.3646408037575584</v>
+        <v>0.392880851821439</v>
       </c>
       <c r="AK4">
-        <v>0.5557996583137973</v>
+        <v>0.6092847037174539</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -955,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>1445.918854415274</v>
+        <v>2337.040816326531</v>
       </c>
       <c r="AP4">
-        <v>1117.363107967486</v>
+        <v>1540.631821268978</v>
       </c>
     </row>
     <row r="5">
@@ -978,13 +975,13 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.09039999999999999</v>
+        <v>0.0619</v>
       </c>
       <c r="E5">
-        <v>0.0644</v>
+        <v>0.0248</v>
       </c>
       <c r="F5">
-        <v>0.08160000000000001</v>
+        <v>0.0398</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -999,28 +996,28 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3892.6</v>
+        <v>3468.2</v>
       </c>
       <c r="L5">
-        <v>0.6538338792307046</v>
+        <v>0.6239228596614316</v>
       </c>
       <c r="M5">
-        <v>1644.2</v>
+        <v>1940.7</v>
       </c>
       <c r="N5">
-        <v>0.03147679825711731</v>
+        <v>0.04290062802434285</v>
       </c>
       <c r="O5">
-        <v>0.4223912038226378</v>
+        <v>0.5595698056628799</v>
       </c>
       <c r="P5">
-        <v>1644.2</v>
+        <v>1940.7</v>
       </c>
       <c r="Q5">
-        <v>0.03147679825711731</v>
+        <v>0.04290062802434285</v>
       </c>
       <c r="R5">
-        <v>0.4223912038226378</v>
+        <v>0.5595698056628799</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1029,55 +1026,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>25587.5</v>
+        <v>29077.5</v>
       </c>
       <c r="V5">
-        <v>0.4898507331249174</v>
+        <v>0.6427799306321581</v>
       </c>
       <c r="W5">
-        <v>0.1861116689138147</v>
+        <v>0.1376318995519681</v>
       </c>
       <c r="X5">
-        <v>0.05662612777701689</v>
+        <v>0.05533543133065909</v>
       </c>
       <c r="Y5">
-        <v>0.1294855411367978</v>
+        <v>0.08229646822130905</v>
       </c>
       <c r="Z5">
-        <v>0.172834739390702</v>
+        <v>0.1595337998013971</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04651173165874296</v>
+        <v>0.04039071943516348</v>
       </c>
       <c r="AC5">
-        <v>-0.04651173165874296</v>
+        <v>-0.04039071943516348</v>
       </c>
       <c r="AD5">
-        <v>35231.8</v>
+        <v>40731.5</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>35231.8</v>
+        <v>40731.5</v>
       </c>
       <c r="AG5">
-        <v>9644.300000000003</v>
+        <v>11654</v>
       </c>
       <c r="AH5">
-        <v>0.4028005958811942</v>
+        <v>0.4737950833211195</v>
       </c>
       <c r="AI5">
-        <v>0.5801478700456125</v>
+        <v>0.6123969352714413</v>
       </c>
       <c r="AJ5">
-        <v>0.1558558878855067</v>
+        <v>0.2048475069035403</v>
       </c>
       <c r="AK5">
-        <v>0.2744418991790334</v>
+        <v>0.3113204270972189</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1103,10 +1100,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.162</v>
+        <v>0.117</v>
       </c>
       <c r="E6">
-        <v>0.148</v>
+        <v>0.102</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1115,34 +1112,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0002251080338435122</v>
+        <v>0.0001562607806178755</v>
       </c>
       <c r="J6">
-        <v>0.0002251080338435122</v>
+        <v>0.0001557643850954392</v>
       </c>
       <c r="K6">
-        <v>814.3</v>
+        <v>839.5</v>
       </c>
       <c r="L6">
-        <v>0.4377721627869469</v>
+        <v>0.4477810966503094</v>
       </c>
       <c r="M6">
-        <v>380.7</v>
+        <v>397</v>
       </c>
       <c r="N6">
-        <v>0.0382636138862645</v>
+        <v>0.03574773087451376</v>
       </c>
       <c r="O6">
-        <v>0.4675181137173032</v>
+        <v>0.4729005360333532</v>
       </c>
       <c r="P6">
-        <v>380.7</v>
+        <v>397</v>
       </c>
       <c r="Q6">
-        <v>0.0382636138862645</v>
+        <v>0.03574773087451376</v>
       </c>
       <c r="R6">
-        <v>0.4675181137173032</v>
+        <v>0.4729005360333532</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1151,55 +1148,55 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1098.6</v>
+        <v>3627</v>
       </c>
       <c r="V6">
-        <v>0.1104187187167065</v>
+        <v>0.3265919896268549</v>
       </c>
       <c r="W6">
-        <v>0.1550279861401972</v>
+        <v>0.1499348109517601</v>
       </c>
       <c r="X6">
-        <v>0.05567140722929018</v>
+        <v>0.05239699030470918</v>
       </c>
       <c r="Y6">
-        <v>0.09935657891090705</v>
+        <v>0.09753782064705091</v>
       </c>
       <c r="Z6">
-        <v>0.1728587927188298</v>
+        <v>0.1743175403208683</v>
       </c>
       <c r="AA6">
-        <v>3.8911902961499e-05</v>
+        <v>2.715246447942947e-05</v>
       </c>
       <c r="AB6">
-        <v>0.04683283166311888</v>
+        <v>0.04053833286176468</v>
       </c>
       <c r="AC6">
-        <v>-0.04679391976015738</v>
+        <v>-0.04051118039728525</v>
       </c>
       <c r="AD6">
-        <v>6241.6</v>
+        <v>8560.6</v>
       </c>
       <c r="AE6">
-        <v>15.90638273123842</v>
+        <v>12.98521144248804</v>
       </c>
       <c r="AF6">
-        <v>6257.506382731239</v>
+        <v>8573.585211442489</v>
       </c>
       <c r="AG6">
-        <v>5158.906382731238</v>
+        <v>4946.585211442489</v>
       </c>
       <c r="AH6">
-        <v>0.3861012234511781</v>
+        <v>0.4356676925047367</v>
       </c>
       <c r="AI6">
-        <v>0.5126663643939454</v>
+        <v>0.5804224269396011</v>
       </c>
       <c r="AJ6">
-        <v>0.3414615941749671</v>
+        <v>0.3081564999584238</v>
       </c>
       <c r="AK6">
-        <v>0.4644647992452873</v>
+        <v>0.4438674277973019</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1208,10 +1205,10 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>1733.777777777778</v>
+        <v>2962.145328719723</v>
       </c>
       <c r="AP6">
-        <v>1433.029550758677</v>
+        <v>1711.621180429927</v>
       </c>
     </row>
     <row r="7">
@@ -1231,10 +1228,13 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.0122</v>
+        <v>-0.00421</v>
       </c>
       <c r="E7">
-        <v>0.0268</v>
+        <v>0.0207</v>
+      </c>
+      <c r="F7">
+        <v>0.112</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1243,34 +1243,34 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.001679561477209034</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.001627488550655521</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>174.7</v>
+        <v>190.2</v>
       </c>
       <c r="L7">
-        <v>0.6864440078585461</v>
+        <v>0.6659663865546217</v>
       </c>
       <c r="M7">
-        <v>80.90000000000001</v>
+        <v>71.2</v>
       </c>
       <c r="N7">
-        <v>0.06245657376669498</v>
+        <v>0.03917253521126761</v>
       </c>
       <c r="O7">
-        <v>0.4630795649685175</v>
+        <v>0.3743427970557309</v>
       </c>
       <c r="P7">
-        <v>80.90000000000001</v>
+        <v>71.2</v>
       </c>
       <c r="Q7">
-        <v>0.06245657376669498</v>
+        <v>0.03917253521126761</v>
       </c>
       <c r="R7">
-        <v>0.4630795649685175</v>
+        <v>0.3743427970557309</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1279,67 +1279,61 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1725.6</v>
+        <v>2085.6</v>
       </c>
       <c r="V7">
-        <v>1.33220103450938</v>
+        <v>1.147447183098592</v>
       </c>
       <c r="W7">
-        <v>0.09685109213881804</v>
+        <v>0.1009018567639257</v>
       </c>
       <c r="X7">
-        <v>0.1108025898368139</v>
+        <v>0.08761495651052137</v>
       </c>
       <c r="Y7">
-        <v>-0.01395149769799583</v>
+        <v>0.01328690025340436</v>
       </c>
       <c r="Z7">
-        <v>0.0621932680860851</v>
+        <v>0.06522632805006166</v>
       </c>
       <c r="AA7">
-        <v>0.0001012188317379529</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.04891633514358365</v>
+        <v>0.0418791891003964</v>
       </c>
       <c r="AC7">
-        <v>-0.0488151163118457</v>
+        <v>-0.0418791891003964</v>
       </c>
       <c r="AD7">
-        <v>4219.2</v>
+        <v>4200.2</v>
       </c>
       <c r="AE7">
-        <v>2.482758020251504</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>4221.682758020252</v>
+        <v>4200.2</v>
       </c>
       <c r="AG7">
-        <v>2496.082758020252</v>
+        <v>2114.6</v>
       </c>
       <c r="AH7">
-        <v>0.7652158694683299</v>
+        <v>0.6979627106251455</v>
       </c>
       <c r="AI7">
-        <v>0.6913217740803184</v>
+        <v>0.6774406864405412</v>
       </c>
       <c r="AJ7">
-        <v>0.6583568363653246</v>
+        <v>0.5377651187630335</v>
       </c>
       <c r="AK7">
-        <v>0.5697410653680954</v>
+        <v>0.513938510147041</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>4566.233766233766</v>
-      </c>
-      <c r="AP7">
-        <v>2701.388266255683</v>
       </c>
     </row>
     <row r="8">
@@ -1350,7 +1344,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ahli Bank Q.S.C. (DSM:ABQK)</t>
+          <t>Doha Bank Q.P.S.C. (DSM:DHBK)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1359,10 +1353,13 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0278</v>
+        <v>-0.0751</v>
       </c>
       <c r="E8">
-        <v>0.0335</v>
+        <v>-0.123</v>
+      </c>
+      <c r="F8">
+        <v>0.12</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1377,28 +1374,28 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>184.6</v>
+        <v>194.2</v>
       </c>
       <c r="L8">
-        <v>0.6880357808423406</v>
+        <v>0.4365025848505282</v>
       </c>
       <c r="M8">
-        <v>57.8</v>
+        <v>60.4</v>
       </c>
       <c r="N8">
-        <v>0.02598336704877501</v>
+        <v>0.02996180366089587</v>
       </c>
       <c r="O8">
-        <v>0.3131094257854821</v>
+        <v>0.3110195674562307</v>
       </c>
       <c r="P8">
-        <v>57.8</v>
+        <v>60.4</v>
       </c>
       <c r="Q8">
-        <v>0.02598336704877501</v>
+        <v>0.02996180366089587</v>
       </c>
       <c r="R8">
-        <v>0.3131094257854821</v>
+        <v>0.3110195674562307</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1407,55 +1404,55 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>855.4</v>
+        <v>2910</v>
       </c>
       <c r="V8">
-        <v>0.3845358507529782</v>
+        <v>1.443523984324619</v>
       </c>
       <c r="W8">
-        <v>0.1247044518003107</v>
+        <v>0.05256177768154383</v>
       </c>
       <c r="X8">
-        <v>0.06758634787257781</v>
+        <v>0.1397258369011965</v>
       </c>
       <c r="Y8">
-        <v>0.05711810392773294</v>
+        <v>-0.0871640592196527</v>
       </c>
       <c r="Z8">
-        <v>0.08483526212609878</v>
+        <v>0.04553735926305015</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.05000847234562351</v>
+        <v>0.04314005542555209</v>
       </c>
       <c r="AC8">
-        <v>-0.05000847234562351</v>
+        <v>-0.04314005542555209</v>
       </c>
       <c r="AD8">
-        <v>2663.6</v>
+        <v>9248.6</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>2663.6</v>
+        <v>9248.6</v>
       </c>
       <c r="AG8">
-        <v>1808.2</v>
+        <v>6338.6</v>
       </c>
       <c r="AH8">
-        <v>0.5449152022258137</v>
+        <v>0.8210395490257002</v>
       </c>
       <c r="AI8">
-        <v>0.6240716009465569</v>
+        <v>0.709847263796147</v>
       </c>
       <c r="AJ8">
-        <v>0.4483844570635058</v>
+        <v>0.7587048895804657</v>
       </c>
       <c r="AK8">
-        <v>0.5298444047235327</v>
+        <v>0.6264057713212768</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1481,10 +1478,13 @@
         </is>
       </c>
       <c r="D9">
-        <v>-0.0253</v>
+        <v>0.0196</v>
       </c>
       <c r="E9">
-        <v>0.0106</v>
+        <v>0.00307</v>
+      </c>
+      <c r="F9">
+        <v>0.118</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1499,28 +1499,28 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>523.8</v>
+        <v>465.9</v>
       </c>
       <c r="L9">
-        <v>0.6650584052818689</v>
+        <v>0.4803092783505155</v>
       </c>
       <c r="M9">
-        <v>166.7</v>
+        <v>288.2</v>
       </c>
       <c r="N9">
-        <v>0.03190613815147281</v>
+        <v>0.0589173276637501</v>
       </c>
       <c r="O9">
-        <v>0.3182512409316533</v>
+        <v>0.618587679759605</v>
       </c>
       <c r="P9">
-        <v>166.7</v>
+        <v>288.2</v>
       </c>
       <c r="Q9">
-        <v>0.03190613815147281</v>
+        <v>0.0589173276637501</v>
       </c>
       <c r="R9">
-        <v>0.3182512409316533</v>
+        <v>0.618587679759605</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1529,55 +1529,55 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>2335</v>
+        <v>1438.3</v>
       </c>
       <c r="V9">
-        <v>0.4469156123796582</v>
+        <v>0.2940346716820672</v>
       </c>
       <c r="W9">
-        <v>0.09679386491730572</v>
+        <v>0.0787858290352583</v>
       </c>
       <c r="X9">
-        <v>0.08959258196489897</v>
+        <v>0.08669115489444476</v>
       </c>
       <c r="Y9">
-        <v>0.007201282952406754</v>
+        <v>-0.007905325859186463</v>
       </c>
       <c r="Z9">
-        <v>0.0712083540527101</v>
+        <v>0.06331592689295039</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.05135375360553504</v>
+        <v>0.04502753709432868</v>
       </c>
       <c r="AC9">
-        <v>-0.05135375360553504</v>
+        <v>-0.04502753709432868</v>
       </c>
       <c r="AD9">
-        <v>11741.5</v>
+        <v>11106.3</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>11741.5</v>
+        <v>11106.3</v>
       </c>
       <c r="AG9">
-        <v>9406.5</v>
+        <v>9668</v>
       </c>
       <c r="AH9">
-        <v>0.6920524336622225</v>
+        <v>0.6942348683264679</v>
       </c>
       <c r="AI9">
-        <v>0.6650523930897763</v>
+        <v>0.6498218391813378</v>
       </c>
       <c r="AJ9">
-        <v>0.6429069385969708</v>
+        <v>0.6640292315722959</v>
       </c>
       <c r="AK9">
-        <v>0.6140013054830287</v>
+        <v>0.6176451798377308</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Doha Bank Q.P.S.C. (DSM:DHBK)</t>
+          <t>Ahli Bank Q.P.S.C. (DSM:ABQK)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1603,10 +1603,13 @@
         </is>
       </c>
       <c r="D10">
-        <v>-0.0575</v>
+        <v>0.00306</v>
       </c>
       <c r="E10">
-        <v>-0.0784</v>
+        <v>-0.00542</v>
+      </c>
+      <c r="F10">
+        <v>0.046</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1615,34 +1618,34 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.004482013456734821</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.004482013456734821</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>250.2</v>
+        <v>173.4</v>
       </c>
       <c r="L10">
-        <v>0.5136522274686922</v>
+        <v>0.6679506933744221</v>
       </c>
       <c r="M10">
-        <v>145.5</v>
+        <v>95.3</v>
       </c>
       <c r="N10">
-        <v>0.0675330703179392</v>
+        <v>0.04142577700499891</v>
       </c>
       <c r="O10">
-        <v>0.5815347721822542</v>
+        <v>0.5495963091118801</v>
       </c>
       <c r="P10">
-        <v>145.5</v>
+        <v>95.3</v>
       </c>
       <c r="Q10">
-        <v>0.0675330703179392</v>
+        <v>0.04142577700499891</v>
       </c>
       <c r="R10">
-        <v>0.5815347721822542</v>
+        <v>0.5495963091118801</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1651,67 +1654,61 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>1902.8</v>
+        <v>1236.4</v>
       </c>
       <c r="V10">
-        <v>0.8831747505221629</v>
+        <v>0.5374483807867855</v>
       </c>
       <c r="W10">
-        <v>0.0698239053386543</v>
+        <v>0.108071050171393</v>
       </c>
       <c r="X10">
-        <v>0.1201883467755199</v>
+        <v>0.0733281573948364</v>
       </c>
       <c r="Y10">
-        <v>-0.05036444143686561</v>
+        <v>0.03474289277655655</v>
       </c>
       <c r="Z10">
-        <v>0.05617003143051463</v>
+        <v>0.07606880182846426</v>
       </c>
       <c r="AA10">
-        <v>0.0002517548367367844</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.05257704505607664</v>
+        <v>0.04725093908528163</v>
       </c>
       <c r="AC10">
-        <v>-0.05232529021933986</v>
+        <v>-0.04725093908528163</v>
       </c>
       <c r="AD10">
-        <v>7978.1</v>
+        <v>3880</v>
       </c>
       <c r="AE10">
-        <v>8.684056226122344</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>7986.784056226123</v>
+        <v>3880</v>
       </c>
       <c r="AG10">
-        <v>6083.984056226122</v>
+        <v>2643.6</v>
       </c>
       <c r="AH10">
-        <v>0.7875515577657772</v>
+        <v>0.6277809238734731</v>
       </c>
       <c r="AI10">
-        <v>0.6837131324910074</v>
+        <v>0.6984447004608295</v>
       </c>
       <c r="AJ10">
-        <v>0.7384834412137065</v>
+        <v>0.5346979227766429</v>
       </c>
       <c r="AK10">
-        <v>0.6221679748771951</v>
+        <v>0.6121144762434009</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>2035.229591836735</v>
-      </c>
-      <c r="AP10">
-        <v>1552.036749037276</v>
       </c>
     </row>
   </sheetData>
